--- a/biology/Botanique/Begonia_besleriifolia/Begonia_besleriifolia.xlsx
+++ b/biology/Botanique/Begonia_besleriifolia/Begonia_besleriifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia besleriifolia est une espèce de plantes de la famille des Begoniaceae. Ce bégonia à tige de bambou est endémique du Brésil.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce bégonia à tige de bambou peut atteindre jusqu'à deux mètres de haut. Les fleurs d'1 cm sont réparties en une inflorescence de 50 cm. C'est un bégonia facile à cultiver[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce bégonia à tige de bambou peut atteindre jusqu'à deux mètres de haut. Les fleurs d'1 cm sont réparties en une inflorescence de 50 cm. C'est un bégonia facile à cultiver.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire du Brésil[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire du Brésil.
 </t>
         </is>
       </c>
@@ -573,14 +589,51 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Begonia besleriifolia fait partie de la section Ruizopavonia[4] du genre Begonia, famille des Begoniaceae. En classification phylogénétique APG IV (2016)[5], comme classification phylogénétique APG III (2009)[6], celle-ci est classée dans l'ordre des Cucurbitales, alors que dans la classification classique de Cronquist (1981)[7] les Begoniaceae font partie de l'ordre des Violales.
-L'espèce a été décrite en 1827 par le botaniste autrichien Heinrich Wilhelm Schott (1794-1865), sous le basionyme de Begonia besleriaefolia[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia besleriifolia fait partie de la section Ruizopavonia du genre Begonia, famille des Begoniaceae. En classification phylogénétique APG IV (2016), comme classification phylogénétique APG III (2009), celle-ci est classée dans l'ordre des Cucurbitales, alors que dans la classification classique de Cronquist (1981) les Begoniaceae font partie de l'ordre des Violales.
+L'espèce a été décrite en 1827 par le botaniste autrichien Heinrich Wilhelm Schott (1794-1865), sous le basionyme de Begonia besleriaefolia.
 L'épithète spécifique besleriifolia signifie « à feuille de Besleria », en référence à la similitude de forme du feuillage avec ce genre de gesneriacées.
-Publication originale : Systema Vegetabilium, editio decima sexta 4(app): 408. 1827.[9].
-Liste des variétés
-Selon Tropicos                                           (6 février 2017)[10] (Attention liste brute contenant possiblement des synonymes) :
+Publication originale : Systema Vegetabilium, editio decima sexta 4(app): 408. 1827..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Begonia_besleriifolia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Begonia_besleriifolia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (6 février 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Begonia besleriifolia var. besleriifolia
 variété Begonia besleriifolia var. stuhriana Brade</t>
         </is>
